--- a/evaluation/results/hybrid/pca/one_svm/split_2/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/pca/one_svm/split_2/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.8718861209964412</v>
+        <v>0.5231316725978647</v>
       </c>
       <c r="C2">
-        <v>0.02173913043478261</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D2">
-        <v>0.03571428571428571</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E2">
-        <v>0.02702702702702703</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="F2">
-        <v>0.03164556962025317</v>
+        <v>0.3</v>
       </c>
       <c r="G2">
-        <v>0.03485254691689008</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="H2">
-        <v>0.4757223113964688</v>
+        <v>0.6742241840556447</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="K2">
-        <v>489</v>
+        <v>270</v>
       </c>
       <c r="L2">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9476744186046512</v>
+        <v>0.9854014598540146</v>
       </c>
       <c r="C2">
-        <v>0.9157303370786517</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="D2">
-        <v>0.9314285714285714</v>
+        <v>0.6683168316831684</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.02173913043478261</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C3">
-        <v>0.03571428571428571</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D3">
-        <v>0.02702702702702703</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.8718861209964412</v>
+        <v>0.5231316725978647</v>
       </c>
       <c r="C4">
-        <v>0.8718861209964412</v>
+        <v>0.5231316725978647</v>
       </c>
       <c r="D4">
-        <v>0.8718861209964412</v>
+        <v>0.5231316725978647</v>
       </c>
       <c r="E4">
-        <v>0.8718861209964412</v>
+        <v>0.5231316725978647</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.4847067745197169</v>
+        <v>0.5343673965936739</v>
       </c>
       <c r="C5">
-        <v>0.4757223113964687</v>
+        <v>0.6813804173354735</v>
       </c>
       <c r="D5">
-        <v>0.4792277992277992</v>
+        <v>0.4101077829301918</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9015424113648712</v>
+        <v>0.9404585638707778</v>
       </c>
       <c r="C6">
-        <v>0.8718861209964412</v>
+        <v>0.5231316725978647</v>
       </c>
       <c r="D6">
-        <v>0.8863694197502027</v>
+        <v>0.6425878161490639</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>489</v>
+        <v>270</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
